--- a/Data/homeless_population_usafacts.xlsx
+++ b/Data/homeless_population_usafacts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c1abe71445d0fcf/Documents/Data Scientist Program/Final Project/Week 1/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c1abe71445d0fcf/Documents/GitHub/Homelessness-Final-Group-Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E7B2452-8CB0-4568-B19B-D5706A86D770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{0E7B2452-8CB0-4568-B19B-D5706A86D770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9AFA635-7AFB-492F-B343-EEB38C681A54}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="homeless_population_usafacts" sheetId="1" r:id="rId1"/>
@@ -25,27 +25,12 @@
     <t>Years</t>
   </si>
   <si>
-    <t>Homeless population (1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">    By living situation</t>
   </si>
   <si>
-    <t xml:space="preserve">        Sheltered (1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">            By family arrangement</t>
   </si>
   <si>
-    <t xml:space="preserve">                Individuals  (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                People in families with children (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Unsheltered (1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">    By age</t>
   </si>
   <si>
@@ -55,210 +40,18 @@
     <t xml:space="preserve">        18 to 24</t>
   </si>
   <si>
-    <t xml:space="preserve">        Over 24 (1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">    By gender</t>
   </si>
   <si>
-    <t xml:space="preserve">        Cisgender women (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Cisgender men (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Transgender people (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Gender non-conforming (1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">    By race</t>
   </si>
   <si>
-    <t xml:space="preserve">        White (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Black (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Asian (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Native American (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Pacific Islander (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Multiple races (1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">    By ethnicity</t>
   </si>
   <si>
-    <t xml:space="preserve">        Non-Hispanic (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Hispanic (1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">    By State</t>
   </si>
   <si>
-    <t xml:space="preserve">        Alabama (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Alaska (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Arizona (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Arkansas (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        California (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Colorado (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Connecticut (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Delaware (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        District of Columbia (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Florida (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Georgia (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Hawaii (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Idaho (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Illinois (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Indiana (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Iowa (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Kansas (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Kentucky (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Louisiana (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Maine (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Maryland (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Massachusetts (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Michigan (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Minnesota (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Mississippi (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Missouri (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Montana (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Nebraska (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Nevada (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        New Hampshire (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        New Jersey (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        New Mexico (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        New York (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        North Carolina (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        North Dakota (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Ohio (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Oklahoma (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Oregon (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Pennsylvania (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Rhode Island (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        South Carolina (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        South Dakota (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Tennessee (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Texas (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Utah (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Vermont (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Virginia (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Washington (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        West Virginia (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Wisconsin (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Wyoming (1)</t>
-  </si>
-  <si>
     <t>Sources:</t>
   </si>
   <si>
@@ -296,12 +89,219 @@
   </si>
   <si>
     <t>Exported on: 04/23/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homeless population </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Sheltered </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Individuals  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                People in families with children </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Unsheltered </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Over 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Cisgender women </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Cisgender men </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Transgender people </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Gender non-conforming </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        White </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Black </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Asian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Native American </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Pacific Islander </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Multiple races </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Non-Hispanic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Hispanic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Alabama </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Alaska </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Arizona </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Arkansas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        California </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Colorado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Connecticut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Delaware </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        District of Columbia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Florida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Georgia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Hawaii </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Idaho </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Illinois </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Indiana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Iowa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Kansas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Kentucky </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Louisiana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Maine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Maryland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Massachusetts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Michigan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Minnesota </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Mississippi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Missouri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Montana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Nebraska </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Nevada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        New Hampshire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        New Jersey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        New Mexico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        New York </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        North Carolina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        North Dakota </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Ohio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Oklahoma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Oregon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Pennsylvania </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Rhode Island </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        South Carolina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        South Dakota </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Tennessee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Texas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Utah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Vermont </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Virginia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Washington </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        West Virginia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Wisconsin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Wyoming </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1135,7 +1135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="AA2">
         <v>754147</v>
@@ -1325,12 +1325,12 @@
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="AA4">
         <v>415366</v>
@@ -1383,12 +1383,12 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AB6">
         <v>224293</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="AB7">
         <v>203678</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AA8">
         <v>338781</v>
@@ -1541,12 +1541,12 @@
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AA10">
         <v>223027</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="AA11">
         <v>115754</v>
@@ -1652,12 +1652,12 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AK13">
         <v>127787</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AK14">
         <v>52973</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AK15">
         <v>383948</v>
@@ -1726,12 +1726,12 @@
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AK17">
         <v>224344</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AK18">
         <v>339075</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AK19">
         <v>1289</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AM20">
         <v>884</v>
@@ -1817,12 +1817,12 @@
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="AK22">
         <v>273746</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AK23">
         <v>227937</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="AK24">
         <v>6074</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AK25">
         <v>15136</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="AK26">
         <v>8827</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AK27">
         <v>32988</v>
@@ -1960,12 +1960,12 @@
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="AK29">
         <v>452140</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AK30">
         <v>112568</v>
@@ -2011,12 +2011,12 @@
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AC32">
         <v>5452</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="AC33">
         <v>1642</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="AC34">
         <v>14646</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="AC35">
         <v>3836</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AC36">
         <v>138986</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="AC37">
         <v>14225</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="AC38">
         <v>4482</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="AC39">
         <v>1061</v>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AC40">
         <v>5320</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AC41">
         <v>48069</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="AC42">
         <v>19639</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AC43">
         <v>6070</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="AC44">
         <v>1749</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="AC45">
         <v>15487</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AC46">
         <v>7358</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AC47">
         <v>2734</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="AC48">
         <v>2111</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="AC49">
         <v>8061</v>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="AC50">
         <v>5494</v>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="AC51">
         <v>2638</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="AC52">
         <v>9628</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="AC53">
         <v>15127</v>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="AC54">
         <v>28295</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="AC55">
         <v>7323</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AC56">
         <v>1377</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="AC57">
         <v>6247</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="AC58">
         <v>1150</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="AC59">
         <v>3531</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="AC60">
         <v>8642</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="AC61">
         <v>2248</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="AC62">
         <v>17314</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="AC63">
         <v>3015</v>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="AC64">
         <v>62601</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="AC65">
         <v>11802</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="AC66">
         <v>636</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="AC67">
         <v>11264</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="AC68">
         <v>4221</v>
@@ -3755,7 +3755,7 @@
     </row>
     <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="AC69">
         <v>17590</v>
@@ -3802,7 +3802,7 @@
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="AC70">
         <v>16220</v>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AC71">
         <v>1372</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="AC72">
         <v>5660</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="AC73">
         <v>579</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="AC74">
         <v>11210</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="AC75">
         <v>39788</v>
@@ -4084,7 +4084,7 @@
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="AC76">
         <v>3011</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="AC77">
         <v>1035</v>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="AC78">
         <v>9746</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="AC79">
         <v>23379</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AC80">
         <v>2409</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AC81">
         <v>5648</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AC82">
         <v>537</v>
@@ -4413,52 +4413,52 @@
     </row>
     <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="G85" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H85" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="E86" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="G86">
         <v>2020</v>
       </c>
       <c r="H86" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Data/homeless_population_usafacts.xlsx
+++ b/Data/homeless_population_usafacts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c1abe71445d0fcf/Documents/GitHub/Homelessness-Final-Group-Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{0E7B2452-8CB0-4568-B19B-D5706A86D770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9AFA635-7AFB-492F-B343-EEB38C681A54}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{0E7B2452-8CB0-4568-B19B-D5706A86D770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C42F2F3E-A9F5-4AAA-A115-190FE11244EA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="390" windowWidth="10080" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="homeless_population_usafacts" sheetId="1" r:id="rId1"/>
@@ -1138,9 +1138,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="26" width="9.140625" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
